--- a/KirklandInventory.xlsx
+++ b/KirklandInventory.xlsx
@@ -833,7 +833,7 @@
         <v>262799</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -844,7 +844,7 @@
         <v>220906</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -877,7 +877,7 @@
         <v>234784</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -899,7 +899,7 @@
         <v>158809</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -910,7 +910,7 @@
         <v>158808</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -921,7 +921,7 @@
         <v>169112</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -932,7 +932,7 @@
         <v>262800</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -943,7 +943,7 @@
         <v>220909</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -954,7 +954,7 @@
         <v>220907</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -965,7 +965,7 @@
         <v>262809</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -987,7 +987,7 @@
         <v>150556</v>
       </c>
       <c r="C17">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -998,7 +998,7 @@
         <v>208290</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1042,7 +1042,7 @@
         <v>173066</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>177040</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>150551</v>
       </c>
       <c r="C26">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1097,7 +1097,7 @@
         <v>171103</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>208267</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>208268</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1152,7 +1152,7 @@
         <v>150534</v>
       </c>
       <c r="C32">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1163,7 +1163,7 @@
         <v>242949</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>185076</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>169089</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1196,7 +1196,7 @@
         <v>208269</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>169090</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>169091</v>
       </c>
       <c r="C39">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>165832</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>165846</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>159152</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>165855</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>165856</v>
       </c>
       <c r="C48">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>165858</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>159153</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>159155</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>159158</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>242961</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>208280</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>208283</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>176303</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>242952</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>208270</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>169095</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>169096</v>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>169097</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>176305</v>
       </c>
       <c r="C77">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>176307</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>242954</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>192754</v>
       </c>
       <c r="C80">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>242955</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>169144</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>169145</v>
       </c>
       <c r="C83">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>220913</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>161638</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>161639</v>
       </c>
       <c r="C90">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>262812</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>169118</v>
       </c>
       <c r="C95">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>220890</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>177043</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>220899</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>169103</v>
       </c>
       <c r="C100">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>169106</v>
       </c>
       <c r="C101">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>176311</v>
       </c>
       <c r="C102">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>220897</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>220893</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>262803</v>
       </c>
       <c r="C109">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>234786</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>234787</v>
       </c>
       <c r="C112">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>234788</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>234789</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>220895</v>
       </c>
       <c r="C117">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>234792</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>275323</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>275324</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>275327</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>220898</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2285,7 +2285,7 @@
         <v>192770</v>
       </c>
       <c r="C135">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>192771</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>192772</v>
       </c>
       <c r="C138">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>192773</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>220901</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/KirklandInventory.xlsx
+++ b/KirklandInventory.xlsx
@@ -855,7 +855,7 @@
         <v>192759</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -910,7 +910,7 @@
         <v>158808</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -921,7 +921,7 @@
         <v>169112</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -976,7 +976,7 @@
         <v>208287</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -987,7 +987,7 @@
         <v>150556</v>
       </c>
       <c r="C17">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>177040</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>150551</v>
       </c>
       <c r="C26">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1097,7 +1097,7 @@
         <v>171103</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>208267</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>208268</v>
       </c>
       <c r="C30">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>150532</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1152,7 +1152,7 @@
         <v>150534</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>185076</v>
       </c>
       <c r="C34">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1196,7 +1196,7 @@
         <v>208269</v>
       </c>
       <c r="C36">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>169091</v>
       </c>
       <c r="C39">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>165832</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>165846</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>159152</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>165856</v>
       </c>
       <c r="C48">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>165858</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>242963</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>176303</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>242952</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>242953</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>208270</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>169096</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>169097</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>176305</v>
       </c>
       <c r="C77">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>176307</v>
       </c>
       <c r="C78">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>242955</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>169145</v>
       </c>
       <c r="C83">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>220913</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>161638</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>161639</v>
       </c>
       <c r="C90">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>262812</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>169118</v>
       </c>
       <c r="C95">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>220890</v>
       </c>
       <c r="C97">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>169106</v>
       </c>
       <c r="C101">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>176311</v>
       </c>
       <c r="C102">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>262803</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>234787</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>234789</v>
       </c>
       <c r="C114">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>234790</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>220895</v>
       </c>
       <c r="C117">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>192771</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>192772</v>
       </c>
       <c r="C138">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>220901</v>
       </c>
       <c r="C140">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
